--- a/natmiOut/OldD2/LR-pairs_lrc2p/Cadm1-Cadm3.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Cadm1-Cadm3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,6 +79,9 @@
     <t>ECs</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
     <t>M1</t>
   </si>
   <si>
@@ -95,9 +98,6 @@
   </si>
   <si>
     <t>Cadm3</t>
-  </si>
-  <si>
-    <t>FAPs</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T26"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.469036792955521</v>
+        <v>0.4712275</v>
       </c>
       <c r="H2">
-        <v>0.469036792955521</v>
+        <v>0.942455</v>
       </c>
       <c r="I2">
-        <v>0.02579828408899975</v>
+        <v>0.01998177645647621</v>
       </c>
       <c r="J2">
-        <v>0.02579828408899975</v>
+        <v>0.01489035545836662</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>7.36331973587729</v>
+        <v>7.4479585</v>
       </c>
       <c r="N2">
-        <v>7.36331973587729</v>
+        <v>14.895917</v>
       </c>
       <c r="O2">
-        <v>0.4575512322060506</v>
+        <v>0.4326517558596669</v>
       </c>
       <c r="P2">
-        <v>0.4575512322060506</v>
+        <v>0.3540927463829852</v>
       </c>
       <c r="Q2">
-        <v>3.453667874421978</v>
+        <v>3.509682864058751</v>
       </c>
       <c r="R2">
-        <v>3.453667874421978</v>
+        <v>14.038731456235</v>
       </c>
       <c r="S2">
-        <v>0.01180403667372358</v>
+        <v>0.008645150669089788</v>
       </c>
       <c r="T2">
-        <v>0.01180403667372358</v>
+        <v>0.00527256685887191</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.469036792955521</v>
+        <v>0.4712275</v>
       </c>
       <c r="H3">
-        <v>0.469036792955521</v>
+        <v>0.942455</v>
       </c>
       <c r="I3">
-        <v>0.02579828408899975</v>
+        <v>0.01998177645647621</v>
       </c>
       <c r="J3">
-        <v>0.02579828408899975</v>
+        <v>0.01489035545836662</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>4.31747306585428</v>
+        <v>4.347922666666666</v>
       </c>
       <c r="N3">
-        <v>4.31747306585428</v>
+        <v>13.043768</v>
       </c>
       <c r="O3">
-        <v>0.2682845770872528</v>
+        <v>0.25257073815266</v>
       </c>
       <c r="P3">
-        <v>0.2682845770872528</v>
+        <v>0.310065075839406</v>
       </c>
       <c r="Q3">
-        <v>2.025053720480132</v>
+        <v>2.048860728406666</v>
       </c>
       <c r="R3">
-        <v>2.025053720480132</v>
+        <v>12.29316437044</v>
       </c>
       <c r="S3">
-        <v>0.0069212817363941</v>
+        <v>0.005046812029213641</v>
       </c>
       <c r="T3">
-        <v>0.0069212817363941</v>
+        <v>0.004616979194474158</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.469036792955521</v>
+        <v>0.4712275</v>
       </c>
       <c r="H4">
-        <v>0.469036792955521</v>
+        <v>0.942455</v>
       </c>
       <c r="I4">
-        <v>0.02579828408899975</v>
+        <v>0.01998177645647621</v>
       </c>
       <c r="J4">
-        <v>0.02579828408899975</v>
+        <v>0.01489035545836662</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.269068977085994</v>
+        <v>0.013972</v>
       </c>
       <c r="N4">
-        <v>0.269068977085994</v>
+        <v>0.041916</v>
       </c>
       <c r="O4">
-        <v>0.0167197468574207</v>
+        <v>0.000811633192219219</v>
       </c>
       <c r="P4">
-        <v>0.0167197468574207</v>
+        <v>0.0009963905919581322</v>
       </c>
       <c r="Q4">
-        <v>0.1262032500962372</v>
+        <v>0.006583990630000001</v>
       </c>
       <c r="R4">
-        <v>0.1262032500962372</v>
+        <v>0.03950394378</v>
       </c>
       <c r="S4">
-        <v>0.0004313407793238999</v>
+        <v>1.621787301158062E-05</v>
       </c>
       <c r="T4">
-        <v>0.0004313407793238999</v>
+        <v>1.483661008962892E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.469036792955521</v>
+        <v>0.4712275</v>
       </c>
       <c r="H5">
-        <v>0.469036792955521</v>
+        <v>0.942455</v>
       </c>
       <c r="I5">
-        <v>0.02579828408899975</v>
+        <v>0.01998177645647621</v>
       </c>
       <c r="J5">
-        <v>0.02579828408899975</v>
+        <v>0.01489035545836662</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.02466679969921</v>
+        <v>0.3526420000000001</v>
       </c>
       <c r="N5">
-        <v>2.02466679969921</v>
+        <v>1.057926</v>
       </c>
       <c r="O5">
-        <v>0.125811294665813</v>
+        <v>0.02048496651664542</v>
       </c>
       <c r="P5">
-        <v>0.125811294665813</v>
+        <v>0.02514809412605924</v>
       </c>
       <c r="Q5">
-        <v>0.9496432225344356</v>
+        <v>0.166174608055</v>
       </c>
       <c r="R5">
-        <v>0.9496432225344356</v>
+        <v>0.9970476483300001</v>
       </c>
       <c r="S5">
-        <v>0.003245715521393503</v>
+        <v>0.0004093260216540091</v>
       </c>
       <c r="T5">
-        <v>0.003245715521393503</v>
+        <v>0.0003744640606374837</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,123 +776,123 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.469036792955521</v>
+        <v>0.4712275</v>
       </c>
       <c r="H6">
-        <v>0.469036792955521</v>
+        <v>0.942455</v>
       </c>
       <c r="I6">
-        <v>0.02579828408899975</v>
+        <v>0.01998177645647621</v>
       </c>
       <c r="J6">
-        <v>0.02579828408899975</v>
+        <v>0.01489035545836662</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.11835723970203</v>
+        <v>2.923957333333334</v>
       </c>
       <c r="N6">
-        <v>2.11835723970203</v>
+        <v>8.771872</v>
       </c>
       <c r="O6">
-        <v>0.1316331491834629</v>
+        <v>0.1698526212686894</v>
       </c>
       <c r="P6">
-        <v>0.1316331491834629</v>
+        <v>0.2085172901675009</v>
       </c>
       <c r="Q6">
-        <v>0.9935874860439499</v>
+        <v>1.377849104293333</v>
       </c>
       <c r="R6">
-        <v>0.9935874860439499</v>
+        <v>8.26709462576</v>
       </c>
       <c r="S6">
-        <v>0.003395909378164661</v>
+        <v>0.003393957108737469</v>
       </c>
       <c r="T6">
-        <v>0.003395909378164661</v>
+        <v>0.003104896569809462</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
         <v>25</v>
       </c>
-      <c r="C7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" t="s">
-        <v>20</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>3.2086511191429</v>
+        <v>0.4712275</v>
       </c>
       <c r="H7">
-        <v>3.2086511191429</v>
+        <v>0.942455</v>
       </c>
       <c r="I7">
-        <v>0.1764844343927308</v>
+        <v>0.01998177645647621</v>
       </c>
       <c r="J7">
-        <v>0.1764844343927308</v>
+        <v>0.01489035545836662</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>7.36331973587729</v>
+        <v>2.1282205</v>
       </c>
       <c r="N7">
-        <v>7.36331973587729</v>
+        <v>4.256441000000001</v>
       </c>
       <c r="O7">
-        <v>0.4575512322060506</v>
+        <v>0.123628285010119</v>
       </c>
       <c r="P7">
-        <v>0.4575512322060506</v>
+        <v>0.1011804028920905</v>
       </c>
       <c r="Q7">
-        <v>23.62632411112967</v>
+        <v>1.00287602566375</v>
       </c>
       <c r="R7">
-        <v>23.62632411112967</v>
+        <v>4.011504102655</v>
       </c>
       <c r="S7">
-        <v>0.08075067042158188</v>
+        <v>0.002470312754769727</v>
       </c>
       <c r="T7">
-        <v>0.08075067042158188</v>
+        <v>0.001506612164483973</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>3.2086511191429</v>
+        <v>0.021124</v>
       </c>
       <c r="H8">
-        <v>3.2086511191429</v>
+        <v>0.063372</v>
       </c>
       <c r="I8">
-        <v>0.1764844343927308</v>
+        <v>0.0008957351722185219</v>
       </c>
       <c r="J8">
-        <v>0.1764844343927308</v>
+        <v>0.001001248448050686</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>4.31747306585428</v>
+        <v>7.4479585</v>
       </c>
       <c r="N8">
-        <v>4.31747306585428</v>
+        <v>14.895917</v>
       </c>
       <c r="O8">
-        <v>0.2682845770872528</v>
+        <v>0.4326517558596669</v>
       </c>
       <c r="P8">
-        <v>0.2682845770872528</v>
+        <v>0.3540927463829852</v>
       </c>
       <c r="Q8">
-        <v>13.85326478462266</v>
+        <v>0.157330675354</v>
       </c>
       <c r="R8">
-        <v>13.85326478462266</v>
+        <v>0.9439840521240001</v>
       </c>
       <c r="S8">
-        <v>0.0473480518435368</v>
+        <v>0.0003875413950456047</v>
       </c>
       <c r="T8">
-        <v>0.0473480518435368</v>
+        <v>0.000354534812781969</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G9">
-        <v>3.2086511191429</v>
+        <v>0.021124</v>
       </c>
       <c r="H9">
-        <v>3.2086511191429</v>
+        <v>0.063372</v>
       </c>
       <c r="I9">
-        <v>0.1764844343927308</v>
+        <v>0.0008957351722185219</v>
       </c>
       <c r="J9">
-        <v>0.1764844343927308</v>
+        <v>0.001001248448050686</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.269068977085994</v>
+        <v>4.347922666666666</v>
       </c>
       <c r="N9">
-        <v>0.269068977085994</v>
+        <v>13.043768</v>
       </c>
       <c r="O9">
-        <v>0.0167197468574207</v>
+        <v>0.25257073815266</v>
       </c>
       <c r="P9">
-        <v>0.0167197468574207</v>
+        <v>0.310065075839406</v>
       </c>
       <c r="Q9">
-        <v>0.86334847445361</v>
+        <v>0.09184551841066667</v>
       </c>
       <c r="R9">
-        <v>0.86334847445361</v>
+        <v>0.8266096656959999</v>
       </c>
       <c r="S9">
-        <v>0.00295077506732153</v>
+        <v>0.0002262364936365321</v>
       </c>
       <c r="T9">
-        <v>0.00295077506732153</v>
+        <v>0.0003104521759789235</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>3.2086511191429</v>
+        <v>0.021124</v>
       </c>
       <c r="H10">
-        <v>3.2086511191429</v>
+        <v>0.063372</v>
       </c>
       <c r="I10">
-        <v>0.1764844343927308</v>
+        <v>0.0008957351722185219</v>
       </c>
       <c r="J10">
-        <v>0.1764844343927308</v>
+        <v>0.001001248448050686</v>
       </c>
       <c r="K10">
         <v>1</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>2.02466679969921</v>
+        <v>0.013972</v>
       </c>
       <c r="N10">
-        <v>2.02466679969921</v>
+        <v>0.041916</v>
       </c>
       <c r="O10">
-        <v>0.125811294665813</v>
+        <v>0.000811633192219219</v>
       </c>
       <c r="P10">
-        <v>0.125811294665813</v>
+        <v>0.0009963905919581322</v>
       </c>
       <c r="Q10">
-        <v>6.496449392746344</v>
+        <v>0.000295144528</v>
       </c>
       <c r="R10">
-        <v>6.496449392746344</v>
+        <v>0.002656300752</v>
       </c>
       <c r="S10">
-        <v>0.02220373517931321</v>
+        <v>7.270083972107509E-07</v>
       </c>
       <c r="T10">
-        <v>0.02220373517931321</v>
+        <v>9.976345338503842E-07</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,185 +1086,185 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G11">
-        <v>3.2086511191429</v>
+        <v>0.021124</v>
       </c>
       <c r="H11">
-        <v>3.2086511191429</v>
+        <v>0.063372</v>
       </c>
       <c r="I11">
-        <v>0.1764844343927308</v>
+        <v>0.0008957351722185219</v>
       </c>
       <c r="J11">
-        <v>0.1764844343927308</v>
+        <v>0.001001248448050686</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>2.11835723970203</v>
+        <v>0.3526420000000001</v>
       </c>
       <c r="N11">
-        <v>2.11835723970203</v>
+        <v>1.057926</v>
       </c>
       <c r="O11">
-        <v>0.1316331491834629</v>
+        <v>0.02048496651664542</v>
       </c>
       <c r="P11">
-        <v>0.1316331491834629</v>
+        <v>0.02514809412605924</v>
       </c>
       <c r="Q11">
-        <v>6.797069327914382</v>
+        <v>0.007449209608000002</v>
       </c>
       <c r="R11">
-        <v>6.797069327914382</v>
+        <v>0.067042886472</v>
       </c>
       <c r="S11">
-        <v>0.02323120188097741</v>
+        <v>1.834910501067804E-05</v>
       </c>
       <c r="T11">
-        <v>0.02323120188097741</v>
+        <v>2.517949021514939E-05</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>7.14883143340737</v>
+        <v>0.021124</v>
       </c>
       <c r="H12">
-        <v>7.14883143340737</v>
+        <v>0.063372</v>
       </c>
       <c r="I12">
-        <v>0.3932049404083828</v>
+        <v>0.0008957351722185219</v>
       </c>
       <c r="J12">
-        <v>0.3932049404083828</v>
+        <v>0.001001248448050686</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>7.36331973587729</v>
+        <v>2.923957333333334</v>
       </c>
       <c r="N12">
-        <v>7.36331973587729</v>
+        <v>8.771872</v>
       </c>
       <c r="O12">
-        <v>0.4575512322060506</v>
+        <v>0.1698526212686894</v>
       </c>
       <c r="P12">
-        <v>0.4575512322060506</v>
+        <v>0.2085172901675009</v>
       </c>
       <c r="Q12">
-        <v>52.63913158206843</v>
+        <v>0.06176567470933334</v>
       </c>
       <c r="R12">
-        <v>52.63913158206843</v>
+        <v>0.555891072384</v>
       </c>
       <c r="S12">
-        <v>0.1799114049933623</v>
+        <v>0.0001521429669638769</v>
       </c>
       <c r="T12">
-        <v>0.1799114049933623</v>
+        <v>0.0002087776131719448</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
         <v>25</v>
       </c>
-      <c r="C13" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" t="s">
-        <v>27</v>
-      </c>
       <c r="E13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>7.14883143340737</v>
+        <v>0.021124</v>
       </c>
       <c r="H13">
-        <v>7.14883143340737</v>
+        <v>0.063372</v>
       </c>
       <c r="I13">
-        <v>0.3932049404083828</v>
+        <v>0.0008957351722185219</v>
       </c>
       <c r="J13">
-        <v>0.3932049404083828</v>
+        <v>0.001001248448050686</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>4.31747306585428</v>
+        <v>2.1282205</v>
       </c>
       <c r="N13">
-        <v>4.31747306585428</v>
+        <v>4.256441000000001</v>
       </c>
       <c r="O13">
-        <v>0.2682845770872528</v>
+        <v>0.123628285010119</v>
       </c>
       <c r="P13">
-        <v>0.2682845770872528</v>
+        <v>0.1011804028920905</v>
       </c>
       <c r="Q13">
-        <v>30.86488716606877</v>
+        <v>0.04495652984200001</v>
       </c>
       <c r="R13">
-        <v>30.86488716606877</v>
+        <v>0.269739179052</v>
       </c>
       <c r="S13">
-        <v>0.1054908211460814</v>
+        <v>0.0001107382031646195</v>
       </c>
       <c r="T13">
-        <v>0.1054908211460814</v>
+        <v>0.0001013067213688488</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,61 +1272,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>7.14883143340737</v>
+        <v>7.105631</v>
       </c>
       <c r="H14">
-        <v>7.14883143340737</v>
+        <v>21.316893</v>
       </c>
       <c r="I14">
-        <v>0.3932049404083828</v>
+        <v>0.3013048479220918</v>
       </c>
       <c r="J14">
-        <v>0.3932049404083828</v>
+        <v>0.3367971033502578</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.269068977085994</v>
+        <v>7.4479585</v>
       </c>
       <c r="N14">
-        <v>0.269068977085994</v>
+        <v>14.895917</v>
       </c>
       <c r="O14">
-        <v>0.0167197468574207</v>
+        <v>0.4326517558596669</v>
       </c>
       <c r="P14">
-        <v>0.0167197468574207</v>
+        <v>0.3540927463829852</v>
       </c>
       <c r="Q14">
-        <v>1.923528761147121</v>
+        <v>52.9224448043135</v>
       </c>
       <c r="R14">
-        <v>1.923528761147121</v>
+        <v>317.534668825881</v>
       </c>
       <c r="S14">
-        <v>0.006574287066715352</v>
+        <v>0.1303600715025229</v>
       </c>
       <c r="T14">
-        <v>0.006574287066715352</v>
+        <v>0.1192574112991269</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,61 +1334,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>7.14883143340737</v>
+        <v>7.105631</v>
       </c>
       <c r="H15">
-        <v>7.14883143340737</v>
+        <v>21.316893</v>
       </c>
       <c r="I15">
-        <v>0.3932049404083828</v>
+        <v>0.3013048479220918</v>
       </c>
       <c r="J15">
-        <v>0.3932049404083828</v>
+        <v>0.3367971033502578</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>2.02466679969921</v>
+        <v>4.347922666666666</v>
       </c>
       <c r="N15">
-        <v>2.02466679969921</v>
+        <v>13.043768</v>
       </c>
       <c r="O15">
-        <v>0.125811294665813</v>
+        <v>0.25257073815266</v>
       </c>
       <c r="P15">
-        <v>0.125811294665813</v>
+        <v>0.310065075839406</v>
       </c>
       <c r="Q15">
-        <v>14.47400165986601</v>
+        <v>30.89473408586933</v>
       </c>
       <c r="R15">
-        <v>14.47400165986601</v>
+        <v>278.052606772824</v>
       </c>
       <c r="S15">
-        <v>0.04946962262177251</v>
+        <v>0.0761007878486577</v>
       </c>
       <c r="T15">
-        <v>0.04946962262177251</v>
+        <v>0.1044290193927899</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,247 +1396,247 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>7.14883143340737</v>
+        <v>7.105631</v>
       </c>
       <c r="H16">
-        <v>7.14883143340737</v>
+        <v>21.316893</v>
       </c>
       <c r="I16">
-        <v>0.3932049404083828</v>
+        <v>0.3013048479220918</v>
       </c>
       <c r="J16">
-        <v>0.3932049404083828</v>
+        <v>0.3367971033502578</v>
       </c>
       <c r="K16">
         <v>1</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M16">
-        <v>2.11835723970203</v>
+        <v>0.013972</v>
       </c>
       <c r="N16">
-        <v>2.11835723970203</v>
+        <v>0.041916</v>
       </c>
       <c r="O16">
-        <v>0.1316331491834629</v>
+        <v>0.000811633192219219</v>
       </c>
       <c r="P16">
-        <v>0.1316331491834629</v>
+        <v>0.0009963905919581322</v>
       </c>
       <c r="Q16">
-        <v>15.14377882236794</v>
+        <v>0.099279876332</v>
       </c>
       <c r="R16">
-        <v>15.14377882236794</v>
+        <v>0.8935188869880001</v>
       </c>
       <c r="S16">
-        <v>0.05175880458045129</v>
+        <v>0.0002445490155501337</v>
       </c>
       <c r="T16">
-        <v>0.05175880458045129</v>
+        <v>0.0003355814651769476</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
         <v>23</v>
       </c>
-      <c r="B17" t="s">
-        <v>25</v>
-      </c>
-      <c r="C17" t="s">
-        <v>26</v>
-      </c>
-      <c r="D17" t="s">
-        <v>20</v>
-      </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1.16930972042102</v>
+        <v>7.105631</v>
       </c>
       <c r="H17">
-        <v>1.16930972042102</v>
+        <v>21.316893</v>
       </c>
       <c r="I17">
-        <v>0.06431517699361172</v>
+        <v>0.3013048479220918</v>
       </c>
       <c r="J17">
-        <v>0.06431517699361172</v>
+        <v>0.3367971033502578</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>7.36331973587729</v>
+        <v>0.3526420000000001</v>
       </c>
       <c r="N17">
-        <v>7.36331973587729</v>
+        <v>1.057926</v>
       </c>
       <c r="O17">
-        <v>0.4575512322060506</v>
+        <v>0.02048496651664542</v>
       </c>
       <c r="P17">
-        <v>0.4575512322060506</v>
+        <v>0.02514809412605924</v>
       </c>
       <c r="Q17">
-        <v>8.610001341729253</v>
+        <v>2.505743927102</v>
       </c>
       <c r="R17">
-        <v>8.610001341729253</v>
+        <v>22.551695343918</v>
       </c>
       <c r="S17">
-        <v>0.02942748848297728</v>
+        <v>0.006172219720986993</v>
       </c>
       <c r="T17">
-        <v>0.02942748848297728</v>
+        <v>0.008469805256436385</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C18" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>1.16930972042102</v>
+        <v>7.105631</v>
       </c>
       <c r="H18">
-        <v>1.16930972042102</v>
+        <v>21.316893</v>
       </c>
       <c r="I18">
-        <v>0.06431517699361172</v>
+        <v>0.3013048479220918</v>
       </c>
       <c r="J18">
-        <v>0.06431517699361172</v>
+        <v>0.3367971033502578</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>4.31747306585428</v>
+        <v>2.923957333333334</v>
       </c>
       <c r="N18">
-        <v>4.31747306585428</v>
+        <v>8.771872</v>
       </c>
       <c r="O18">
-        <v>0.2682845770872528</v>
+        <v>0.1698526212686894</v>
       </c>
       <c r="P18">
-        <v>0.2682845770872528</v>
+        <v>0.2085172901675009</v>
       </c>
       <c r="Q18">
-        <v>5.048463223559352</v>
+        <v>20.77656187041067</v>
       </c>
       <c r="R18">
-        <v>5.048463223559352</v>
+        <v>186.989056833696</v>
       </c>
       <c r="S18">
-        <v>0.01725477006002293</v>
+        <v>0.05117741822053112</v>
       </c>
       <c r="T18">
-        <v>0.01725477006002293</v>
+        <v>0.07022801932685947</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
         <v>25</v>
       </c>
-      <c r="C19" t="s">
-        <v>26</v>
-      </c>
-      <c r="D19" t="s">
-        <v>22</v>
-      </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>1.16930972042102</v>
+        <v>7.105631</v>
       </c>
       <c r="H19">
-        <v>1.16930972042102</v>
+        <v>21.316893</v>
       </c>
       <c r="I19">
-        <v>0.06431517699361172</v>
+        <v>0.3013048479220918</v>
       </c>
       <c r="J19">
-        <v>0.06431517699361172</v>
+        <v>0.3367971033502578</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.269068977085994</v>
+        <v>2.1282205</v>
       </c>
       <c r="N19">
-        <v>0.269068977085994</v>
+        <v>4.256441000000001</v>
       </c>
       <c r="O19">
-        <v>0.0167197468574207</v>
+        <v>0.123628285010119</v>
       </c>
       <c r="P19">
-        <v>0.0167197468574207</v>
+        <v>0.1011804028920905</v>
       </c>
       <c r="Q19">
-        <v>0.3146249703703935</v>
+        <v>15.1223495596355</v>
       </c>
       <c r="R19">
-        <v>0.3146249703703935</v>
+        <v>90.73409735781301</v>
       </c>
       <c r="S19">
-        <v>0.001075333478423395</v>
+        <v>0.03724980161384293</v>
       </c>
       <c r="T19">
-        <v>0.001075333478423395</v>
+        <v>0.03407726660986812</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,61 +1644,61 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C20" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D20" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>1.16930972042102</v>
+        <v>7.767127666666666</v>
       </c>
       <c r="H20">
-        <v>1.16930972042102</v>
+        <v>23.301383</v>
       </c>
       <c r="I20">
-        <v>0.06431517699361172</v>
+        <v>0.3293547357576649</v>
       </c>
       <c r="J20">
-        <v>0.06431517699361172</v>
+        <v>0.3681511324588878</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>2.02466679969921</v>
+        <v>7.4479585</v>
       </c>
       <c r="N20">
-        <v>2.02466679969921</v>
+        <v>14.895917</v>
       </c>
       <c r="O20">
-        <v>0.125811294665813</v>
+        <v>0.4326517558596669</v>
       </c>
       <c r="P20">
-        <v>0.125811294665813</v>
+        <v>0.3540927463829852</v>
       </c>
       <c r="Q20">
-        <v>2.367462569502004</v>
+        <v>57.84924452553516</v>
       </c>
       <c r="R20">
-        <v>2.367462569502004</v>
+        <v>347.095467153211</v>
       </c>
       <c r="S20">
-        <v>0.008091575684227203</v>
+        <v>0.1424959047262503</v>
       </c>
       <c r="T20">
-        <v>0.008091575684227203</v>
+        <v>0.1303596455763737</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,309 +1706,309 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C21" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D21" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>1.16930972042102</v>
+        <v>7.767127666666666</v>
       </c>
       <c r="H21">
-        <v>1.16930972042102</v>
+        <v>23.301383</v>
       </c>
       <c r="I21">
-        <v>0.06431517699361172</v>
+        <v>0.3293547357576649</v>
       </c>
       <c r="J21">
-        <v>0.06431517699361172</v>
+        <v>0.3681511324588878</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>2.11835723970203</v>
+        <v>4.347922666666666</v>
       </c>
       <c r="N21">
-        <v>2.11835723970203</v>
+        <v>13.043768</v>
       </c>
       <c r="O21">
-        <v>0.1316331491834629</v>
+        <v>0.25257073815266</v>
       </c>
       <c r="P21">
-        <v>0.1316331491834629</v>
+        <v>0.310065075839406</v>
       </c>
       <c r="Q21">
-        <v>2.477015711707824</v>
+        <v>33.77087043679377</v>
       </c>
       <c r="R21">
-        <v>2.477015711707824</v>
+        <v>303.937833931144</v>
       </c>
       <c r="S21">
-        <v>0.008466009287960912</v>
+        <v>0.08318536872438771</v>
       </c>
       <c r="T21">
-        <v>0.008466009287960912</v>
+        <v>0.1141508088062282</v>
       </c>
     </row>
     <row r="22" spans="1:20">
       <c r="A22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C22" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>6.18510077178731</v>
+        <v>7.767127666666666</v>
       </c>
       <c r="H22">
-        <v>6.18510077178731</v>
+        <v>23.301383</v>
       </c>
       <c r="I22">
-        <v>0.3401971641162749</v>
+        <v>0.3293547357576649</v>
       </c>
       <c r="J22">
-        <v>0.3401971641162749</v>
+        <v>0.3681511324588878</v>
       </c>
       <c r="K22">
         <v>1</v>
       </c>
       <c r="L22">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M22">
-        <v>7.36331973587729</v>
+        <v>0.013972</v>
       </c>
       <c r="N22">
-        <v>7.36331973587729</v>
+        <v>0.041916</v>
       </c>
       <c r="O22">
-        <v>0.4575512322060506</v>
+        <v>0.000811633192219219</v>
       </c>
       <c r="P22">
-        <v>0.4575512322060506</v>
+        <v>0.0009963905919581322</v>
       </c>
       <c r="Q22">
-        <v>45.54287458129136</v>
+        <v>0.1085223077586667</v>
       </c>
       <c r="R22">
-        <v>45.54287458129136</v>
+        <v>0.9767007698279999</v>
       </c>
       <c r="S22">
-        <v>0.1556576316344056</v>
+        <v>0.0002673152355555109</v>
       </c>
       <c r="T22">
-        <v>0.1556576316344056</v>
+        <v>0.0003668223248007679</v>
       </c>
     </row>
     <row r="23" spans="1:20">
       <c r="A23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>6.18510077178731</v>
+        <v>7.767127666666666</v>
       </c>
       <c r="H23">
-        <v>6.18510077178731</v>
+        <v>23.301383</v>
       </c>
       <c r="I23">
-        <v>0.3401971641162749</v>
+        <v>0.3293547357576649</v>
       </c>
       <c r="J23">
-        <v>0.3401971641162749</v>
+        <v>0.3681511324588878</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>4.31747306585428</v>
+        <v>0.3526420000000001</v>
       </c>
       <c r="N23">
-        <v>4.31747306585428</v>
+        <v>1.057926</v>
       </c>
       <c r="O23">
-        <v>0.2682845770872528</v>
+        <v>0.02048496651664542</v>
       </c>
       <c r="P23">
-        <v>0.2682845770872528</v>
+        <v>0.02514809412605924</v>
       </c>
       <c r="Q23">
-        <v>26.70400599178623</v>
+        <v>2.739015434628667</v>
       </c>
       <c r="R23">
-        <v>26.70400599178623</v>
+        <v>24.651138911658</v>
       </c>
       <c r="S23">
-        <v>0.09126965230121753</v>
+        <v>0.006746820734094367</v>
       </c>
       <c r="T23">
-        <v>0.09126965230121753</v>
+        <v>0.009258299331691413</v>
       </c>
     </row>
     <row r="24" spans="1:20">
       <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
         <v>24</v>
       </c>
-      <c r="B24" t="s">
-        <v>25</v>
-      </c>
-      <c r="C24" t="s">
-        <v>26</v>
-      </c>
-      <c r="D24" t="s">
-        <v>22</v>
-      </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>6.18510077178731</v>
+        <v>7.767127666666666</v>
       </c>
       <c r="H24">
-        <v>6.18510077178731</v>
+        <v>23.301383</v>
       </c>
       <c r="I24">
-        <v>0.3401971641162749</v>
+        <v>0.3293547357576649</v>
       </c>
       <c r="J24">
-        <v>0.3401971641162749</v>
+        <v>0.3681511324588878</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>0.269068977085994</v>
+        <v>2.923957333333334</v>
       </c>
       <c r="N24">
-        <v>0.269068977085994</v>
+        <v>8.771872</v>
       </c>
       <c r="O24">
-        <v>0.0167197468574207</v>
+        <v>0.1698526212686894</v>
       </c>
       <c r="P24">
-        <v>0.0167197468574207</v>
+        <v>0.2085172901675009</v>
       </c>
       <c r="Q24">
-        <v>1.664218737838603</v>
+        <v>22.71074989988622</v>
       </c>
       <c r="R24">
-        <v>1.664218737838603</v>
+        <v>204.396749098976</v>
       </c>
       <c r="S24">
-        <v>0.00568801046563652</v>
+        <v>0.05594176519569593</v>
       </c>
       <c r="T24">
-        <v>0.00568801046563652</v>
+        <v>0.07676587651242395</v>
       </c>
     </row>
     <row r="25" spans="1:20">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
         <v>25</v>
       </c>
-      <c r="C25" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25" t="s">
-        <v>23</v>
-      </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>6.18510077178731</v>
+        <v>7.767127666666666</v>
       </c>
       <c r="H25">
-        <v>6.18510077178731</v>
+        <v>23.301383</v>
       </c>
       <c r="I25">
-        <v>0.3401971641162749</v>
+        <v>0.3293547357576649</v>
       </c>
       <c r="J25">
-        <v>0.3401971641162749</v>
+        <v>0.3681511324588878</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>2.02466679969921</v>
+        <v>2.1282205</v>
       </c>
       <c r="N25">
-        <v>2.02466679969921</v>
+        <v>4.256441000000001</v>
       </c>
       <c r="O25">
-        <v>0.125811294665813</v>
+        <v>0.123628285010119</v>
       </c>
       <c r="P25">
-        <v>0.125811294665813</v>
+        <v>0.1011804028920905</v>
       </c>
       <c r="Q25">
-        <v>12.52276818543173</v>
+        <v>16.53016032631717</v>
       </c>
       <c r="R25">
-        <v>12.52276818543173</v>
+        <v>99.18096195790301</v>
       </c>
       <c r="S25">
-        <v>0.04280064565910661</v>
+        <v>0.04071756114168102</v>
       </c>
       <c r="T25">
-        <v>0.04280064565910661</v>
+        <v>0.03724967990736964</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2016,61 +2016,743 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>1.233373</v>
+      </c>
+      <c r="H26">
+        <v>3.700119</v>
+      </c>
+      <c r="I26">
+        <v>0.05229954443120029</v>
+      </c>
+      <c r="J26">
+        <v>0.05846017809683861</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>7.4479585</v>
+      </c>
+      <c r="N26">
+        <v>14.895917</v>
+      </c>
+      <c r="O26">
+        <v>0.4326517558596669</v>
+      </c>
+      <c r="P26">
+        <v>0.3540927463829852</v>
+      </c>
+      <c r="Q26">
+        <v>9.186110919020502</v>
+      </c>
+      <c r="R26">
+        <v>55.116665514123</v>
+      </c>
+      <c r="S26">
+        <v>0.02262748972881947</v>
+      </c>
+      <c r="T26">
+        <v>0.02070032501634802</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>1.233373</v>
+      </c>
+      <c r="H27">
+        <v>3.700119</v>
+      </c>
+      <c r="I27">
+        <v>0.05229954443120029</v>
+      </c>
+      <c r="J27">
+        <v>0.05846017809683861</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>4.347922666666666</v>
+      </c>
+      <c r="N27">
+        <v>13.043768</v>
+      </c>
+      <c r="O27">
+        <v>0.25257073815266</v>
+      </c>
+      <c r="P27">
+        <v>0.310065075839406</v>
+      </c>
+      <c r="Q27">
+        <v>5.362610423154667</v>
+      </c>
+      <c r="R27">
+        <v>48.263493808392</v>
+      </c>
+      <c r="S27">
+        <v>0.0132093345420361</v>
+      </c>
+      <c r="T27">
+        <v>0.01812645955518145</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>1.233373</v>
+      </c>
+      <c r="H28">
+        <v>3.700119</v>
+      </c>
+      <c r="I28">
+        <v>0.05229954443120029</v>
+      </c>
+      <c r="J28">
+        <v>0.05846017809683861</v>
+      </c>
+      <c r="K28">
+        <v>1</v>
+      </c>
+      <c r="L28">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M28">
+        <v>0.013972</v>
+      </c>
+      <c r="N28">
+        <v>0.041916</v>
+      </c>
+      <c r="O28">
+        <v>0.000811633192219219</v>
+      </c>
+      <c r="P28">
+        <v>0.0009963905919581322</v>
+      </c>
+      <c r="Q28">
+        <v>0.017232687556</v>
+      </c>
+      <c r="R28">
+        <v>0.155094188004</v>
+      </c>
+      <c r="S28">
+        <v>4.244804619830597E-05</v>
+      </c>
+      <c r="T28">
+        <v>5.824917145988686E-05</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>1.233373</v>
+      </c>
+      <c r="H29">
+        <v>3.700119</v>
+      </c>
+      <c r="I29">
+        <v>0.05229954443120029</v>
+      </c>
+      <c r="J29">
+        <v>0.05846017809683861</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>0.3526420000000001</v>
+      </c>
+      <c r="N29">
+        <v>1.057926</v>
+      </c>
+      <c r="O29">
+        <v>0.02048496651664542</v>
+      </c>
+      <c r="P29">
+        <v>0.02514809412605924</v>
+      </c>
+      <c r="Q29">
+        <v>0.4349391214660001</v>
+      </c>
+      <c r="R29">
+        <v>3.914452093194</v>
+      </c>
+      <c r="S29">
+        <v>0.001071354416508948</v>
+      </c>
+      <c r="T29">
+        <v>0.001470162061405484</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>1.233373</v>
+      </c>
+      <c r="H30">
+        <v>3.700119</v>
+      </c>
+      <c r="I30">
+        <v>0.05229954443120029</v>
+      </c>
+      <c r="J30">
+        <v>0.05846017809683861</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>2.923957333333334</v>
+      </c>
+      <c r="N30">
+        <v>8.771872</v>
+      </c>
+      <c r="O30">
+        <v>0.1698526212686894</v>
+      </c>
+      <c r="P30">
+        <v>0.2085172901675009</v>
+      </c>
+      <c r="Q30">
+        <v>3.606330028085334</v>
+      </c>
+      <c r="R30">
+        <v>32.456970252768</v>
+      </c>
+      <c r="S30">
+        <v>0.008883214712797658</v>
+      </c>
+      <c r="T30">
+        <v>0.01218995791946227</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
         <v>25</v>
       </c>
-      <c r="C26" t="s">
-        <v>26</v>
-      </c>
-      <c r="D26" t="s">
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>1.233373</v>
+      </c>
+      <c r="H31">
+        <v>3.700119</v>
+      </c>
+      <c r="I31">
+        <v>0.05229954443120029</v>
+      </c>
+      <c r="J31">
+        <v>0.05846017809683861</v>
+      </c>
+      <c r="K31">
+        <v>2</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>2.1282205</v>
+      </c>
+      <c r="N31">
+        <v>4.256441000000001</v>
+      </c>
+      <c r="O31">
+        <v>0.123628285010119</v>
+      </c>
+      <c r="P31">
+        <v>0.1011804028920905</v>
+      </c>
+      <c r="Q31">
+        <v>2.624889702746501</v>
+      </c>
+      <c r="R31">
+        <v>15.749338216479</v>
+      </c>
+      <c r="S31">
+        <v>0.006465702984839812</v>
+      </c>
+      <c r="T31">
+        <v>0.005915024372981495</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>2</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>6.98438</v>
+      </c>
+      <c r="H32">
+        <v>13.96876</v>
+      </c>
+      <c r="I32">
+        <v>0.2961633602603484</v>
+      </c>
+      <c r="J32">
+        <v>0.2206999821875986</v>
+      </c>
+      <c r="K32">
+        <v>2</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>7.4479585</v>
+      </c>
+      <c r="N32">
+        <v>14.895917</v>
+      </c>
+      <c r="O32">
+        <v>0.4326517558596669</v>
+      </c>
+      <c r="P32">
+        <v>0.3540927463829852</v>
+      </c>
+      <c r="Q32">
+        <v>52.01937238823</v>
+      </c>
+      <c r="R32">
+        <v>208.07748955292</v>
+      </c>
+      <c r="S32">
+        <v>0.1281355978379388</v>
+      </c>
+      <c r="T32">
+        <v>0.0781482628194827</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>2</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>6.98438</v>
+      </c>
+      <c r="H33">
+        <v>13.96876</v>
+      </c>
+      <c r="I33">
+        <v>0.2961633602603484</v>
+      </c>
+      <c r="J33">
+        <v>0.2206999821875986</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>4.347922666666666</v>
+      </c>
+      <c r="N33">
+        <v>13.043768</v>
+      </c>
+      <c r="O33">
+        <v>0.25257073815266</v>
+      </c>
+      <c r="P33">
+        <v>0.310065075839406</v>
+      </c>
+      <c r="Q33">
+        <v>30.36754411461333</v>
+      </c>
+      <c r="R33">
+        <v>182.20526468768</v>
+      </c>
+      <c r="S33">
+        <v>0.07480219851472837</v>
+      </c>
+      <c r="T33">
+        <v>0.06843135671475332</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>2</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>6.98438</v>
+      </c>
+      <c r="H34">
+        <v>13.96876</v>
+      </c>
+      <c r="I34">
+        <v>0.2961633602603484</v>
+      </c>
+      <c r="J34">
+        <v>0.2206999821875986</v>
+      </c>
+      <c r="K34">
+        <v>1</v>
+      </c>
+      <c r="L34">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M34">
+        <v>0.013972</v>
+      </c>
+      <c r="N34">
+        <v>0.041916</v>
+      </c>
+      <c r="O34">
+        <v>0.000811633192219219</v>
+      </c>
+      <c r="P34">
+        <v>0.0009963905919581322</v>
+      </c>
+      <c r="Q34">
+        <v>0.09758575736</v>
+      </c>
+      <c r="R34">
+        <v>0.58551454416</v>
+      </c>
+      <c r="S34">
+        <v>0.0002403760135064772</v>
+      </c>
+      <c r="T34">
+        <v>0.0002199033858970506</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>2</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>6.98438</v>
+      </c>
+      <c r="H35">
+        <v>13.96876</v>
+      </c>
+      <c r="I35">
+        <v>0.2961633602603484</v>
+      </c>
+      <c r="J35">
+        <v>0.2206999821875986</v>
+      </c>
+      <c r="K35">
+        <v>3</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>0.3526420000000001</v>
+      </c>
+      <c r="N35">
+        <v>1.057926</v>
+      </c>
+      <c r="O35">
+        <v>0.02048496651664542</v>
+      </c>
+      <c r="P35">
+        <v>0.02514809412605924</v>
+      </c>
+      <c r="Q35">
+        <v>2.46298573196</v>
+      </c>
+      <c r="R35">
+        <v>14.77791439176</v>
+      </c>
+      <c r="S35">
+        <v>0.006066896518390433</v>
+      </c>
+      <c r="T35">
+        <v>0.005550183925673328</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
         <v>24</v>
       </c>
-      <c r="E26">
-        <v>1</v>
-      </c>
-      <c r="F26">
-        <v>1</v>
-      </c>
-      <c r="G26">
-        <v>6.18510077178731</v>
-      </c>
-      <c r="H26">
-        <v>6.18510077178731</v>
-      </c>
-      <c r="I26">
-        <v>0.3401971641162749</v>
-      </c>
-      <c r="J26">
-        <v>0.3401971641162749</v>
-      </c>
-      <c r="K26">
-        <v>1</v>
-      </c>
-      <c r="L26">
-        <v>1</v>
-      </c>
-      <c r="M26">
-        <v>2.11835723970203</v>
-      </c>
-      <c r="N26">
-        <v>2.11835723970203</v>
-      </c>
-      <c r="O26">
-        <v>0.1316331491834629</v>
-      </c>
-      <c r="P26">
-        <v>0.1316331491834629</v>
-      </c>
-      <c r="Q26">
-        <v>13.10225299820226</v>
-      </c>
-      <c r="R26">
-        <v>13.10225299820226</v>
-      </c>
-      <c r="S26">
-        <v>0.04478122405590862</v>
-      </c>
-      <c r="T26">
-        <v>0.04478122405590862</v>
+      <c r="E36">
+        <v>2</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>6.98438</v>
+      </c>
+      <c r="H36">
+        <v>13.96876</v>
+      </c>
+      <c r="I36">
+        <v>0.2961633602603484</v>
+      </c>
+      <c r="J36">
+        <v>0.2206999821875986</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>2.923957333333334</v>
+      </c>
+      <c r="N36">
+        <v>8.771872</v>
+      </c>
+      <c r="O36">
+        <v>0.1698526212686894</v>
+      </c>
+      <c r="P36">
+        <v>0.2085172901675009</v>
+      </c>
+      <c r="Q36">
+        <v>20.42202911978667</v>
+      </c>
+      <c r="R36">
+        <v>122.53217471872</v>
+      </c>
+      <c r="S36">
+        <v>0.05030412306396338</v>
+      </c>
+      <c r="T36">
+        <v>0.04601976222577377</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>2</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>6.98438</v>
+      </c>
+      <c r="H37">
+        <v>13.96876</v>
+      </c>
+      <c r="I37">
+        <v>0.2961633602603484</v>
+      </c>
+      <c r="J37">
+        <v>0.2206999821875986</v>
+      </c>
+      <c r="K37">
+        <v>2</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>2.1282205</v>
+      </c>
+      <c r="N37">
+        <v>4.256441000000001</v>
+      </c>
+      <c r="O37">
+        <v>0.123628285010119</v>
+      </c>
+      <c r="P37">
+        <v>0.1011804028920905</v>
+      </c>
+      <c r="Q37">
+        <v>14.86430069579</v>
+      </c>
+      <c r="R37">
+        <v>59.45720278316001</v>
+      </c>
+      <c r="S37">
+        <v>0.0366141683118209</v>
+      </c>
+      <c r="T37">
+        <v>0.02233051311601843</v>
       </c>
     </row>
   </sheetData>
